--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1067</v>
+        <v>1066.827089534028</v>
       </c>
       <c r="C2">
-        <v>1509</v>
+        <v>1511.213283282402</v>
       </c>
       <c r="D2">
-        <v>1833</v>
+        <v>1838.018729192084</v>
       </c>
       <c r="E2">
-        <v>2008</v>
+        <v>2010.631070832981</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1094</v>
+        <v>1096.168533900459</v>
       </c>
       <c r="C3">
-        <v>1525</v>
+        <v>1528.33010704203</v>
       </c>
       <c r="D3">
-        <v>1841</v>
+        <v>1847.781862906447</v>
       </c>
       <c r="E3">
-        <v>2013</v>
+        <v>2018.735400027925</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1122</v>
+        <v>1121.183306044844</v>
       </c>
       <c r="C4">
-        <v>1538</v>
+        <v>1540.626423965915</v>
       </c>
       <c r="D4">
-        <v>1844</v>
+        <v>1850.061862514113</v>
       </c>
       <c r="E4">
-        <v>2010</v>
+        <v>2017.413604081494</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1123</v>
+        <v>1125.261196947115</v>
       </c>
       <c r="C5">
-        <v>1542</v>
+        <v>1546.222606126279</v>
       </c>
       <c r="D5">
-        <v>1851</v>
+        <v>1856.916359620758</v>
       </c>
       <c r="E5">
-        <v>2018</v>
+        <v>2025.331113879538</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1103</v>
+        <v>1103.837453310326</v>
       </c>
       <c r="C6">
-        <v>1532</v>
+        <v>1536.915018266464</v>
       </c>
       <c r="D6">
-        <v>1849</v>
+        <v>1855.084687763432</v>
       </c>
       <c r="E6">
-        <v>2016</v>
+        <v>2024.724179085728</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1155</v>
+        <v>1154.182764083716</v>
       </c>
       <c r="C7">
-        <v>1562</v>
+        <v>1564.451171895376</v>
       </c>
       <c r="D7">
-        <v>1860</v>
+        <v>1866.352806353311</v>
       </c>
       <c r="E7">
-        <v>2022</v>
+        <v>2030.493497846352</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1049</v>
+        <v>1048.501688302613</v>
       </c>
       <c r="C8">
-        <v>1483</v>
+        <v>1485.222641346011</v>
       </c>
       <c r="D8">
-        <v>1808</v>
+        <v>1810.082880098869</v>
       </c>
       <c r="E8">
-        <v>1980</v>
+        <v>1982.384839167365</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1134</v>
+        <v>1134.340219809489</v>
       </c>
       <c r="C9">
-        <v>1548</v>
+        <v>1548.913673198975</v>
       </c>
       <c r="D9">
-        <v>1849</v>
+        <v>1854.667135943324</v>
       </c>
       <c r="E9">
-        <v>2013</v>
+        <v>2019.818827124698</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1234</v>
+        <v>1228.166133370289</v>
       </c>
       <c r="C10">
-        <v>1648</v>
+        <v>1647.746076806086</v>
       </c>
       <c r="D10">
-        <v>1933</v>
+        <v>1939.815918085547</v>
       </c>
       <c r="E10">
-        <v>2034</v>
+        <v>2038.806492436251</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1296</v>
+        <v>1294.365777851517</v>
       </c>
       <c r="C11">
-        <v>1675</v>
+        <v>1678.467432057428</v>
       </c>
       <c r="D11">
-        <v>1947</v>
+        <v>1953.123059391344</v>
       </c>
       <c r="E11">
-        <v>2041</v>
+        <v>2047.386004418435</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1182</v>
+        <v>1172.687020782348</v>
       </c>
       <c r="C12">
-        <v>1618</v>
+        <v>1616.42836104628</v>
       </c>
       <c r="D12">
-        <v>1922</v>
+        <v>1925.405581190644</v>
       </c>
       <c r="E12">
-        <v>2024</v>
+        <v>2028.861029587857</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1226</v>
+        <v>1219.485333534142</v>
       </c>
       <c r="C13">
-        <v>1642</v>
+        <v>1641.824615553334</v>
       </c>
       <c r="D13">
-        <v>1931</v>
+        <v>1935.285702291976</v>
       </c>
       <c r="E13">
-        <v>2031</v>
+        <v>2034.465361463813</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1066.827089534028</v>
+        <v>1259.515021509692</v>
       </c>
       <c r="C2">
-        <v>1511.213283282402</v>
+        <v>1635.979465759045</v>
       </c>
       <c r="D2">
-        <v>1838.018729192084</v>
+        <v>1915.282181076994</v>
       </c>
       <c r="E2">
-        <v>2010.631070832981</v>
+        <v>2019.65137698106</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1096.168533900459</v>
+        <v>1116.668032735869</v>
       </c>
       <c r="C3">
-        <v>1528.33010704203</v>
+        <v>1531.703068245188</v>
       </c>
       <c r="D3">
-        <v>1847.781862906447</v>
+        <v>1839.196797963223</v>
       </c>
       <c r="E3">
-        <v>2018.735400027925</v>
+        <v>2005.850707726499</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1121.183306044844</v>
+        <v>1091.483546524667</v>
       </c>
       <c r="C4">
-        <v>1540.626423965915</v>
+        <v>1517.710587603399</v>
       </c>
       <c r="D4">
-        <v>1850.061862514113</v>
+        <v>1832.251604520887</v>
       </c>
       <c r="E4">
-        <v>2017.413604081494</v>
+        <v>1999.697133928843</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1125.261196947115</v>
+        <v>1087.172696662512</v>
       </c>
       <c r="C5">
-        <v>1546.222606126279</v>
+        <v>1514.44998739471</v>
       </c>
       <c r="D5">
-        <v>1856.916359620758</v>
+        <v>1832.035306284129</v>
       </c>
       <c r="E5">
-        <v>2025.331113879538</v>
+        <v>2001.652044131167</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1103.837453310326</v>
+        <v>1074.256632366303</v>
       </c>
       <c r="C6">
-        <v>1536.915018266464</v>
+        <v>1514.921941800854</v>
       </c>
       <c r="D6">
-        <v>1855.084687763432</v>
+        <v>1839.106452291354</v>
       </c>
       <c r="E6">
-        <v>2024.724179085728</v>
+        <v>2010.435423619375</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1154.182764083716</v>
+        <v>1089.558014511482</v>
       </c>
       <c r="C7">
-        <v>1564.451171895376</v>
+        <v>1517.397064725418</v>
       </c>
       <c r="D7">
-        <v>1866.352806353311</v>
+        <v>1833.993524116494</v>
       </c>
       <c r="E7">
-        <v>2030.493497846352</v>
+        <v>2002.705702188781</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1048.501688302613</v>
+        <v>1066.649783384992</v>
       </c>
       <c r="C8">
-        <v>1485.222641346011</v>
+        <v>1508.600389446138</v>
       </c>
       <c r="D8">
-        <v>1810.082880098869</v>
+        <v>1833.361883931984</v>
       </c>
       <c r="E8">
-        <v>1982.384839167365</v>
+        <v>2004.813689725464</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1134.340219809489</v>
+        <v>1076.130534611789</v>
       </c>
       <c r="C9">
-        <v>1548.913673198975</v>
+        <v>1506.043863405003</v>
       </c>
       <c r="D9">
-        <v>1854.667135943324</v>
+        <v>1825.887354415971</v>
       </c>
       <c r="E9">
-        <v>2019.818827124698</v>
+        <v>1995.729288715466</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1228.166133370289</v>
+        <v>1150.60471713456</v>
       </c>
       <c r="C10">
-        <v>1647.746076806086</v>
+        <v>1581.121243525304</v>
       </c>
       <c r="D10">
-        <v>1939.815918085547</v>
+        <v>1894.916213845896</v>
       </c>
       <c r="E10">
-        <v>2038.806492436251</v>
+        <v>2007.701125141178</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1294.365777851517</v>
+        <v>1229.289304787239</v>
       </c>
       <c r="C11">
-        <v>1678.467432057428</v>
+        <v>1631.072621653311</v>
       </c>
       <c r="D11">
-        <v>1953.123059391344</v>
+        <v>1921.3379978942</v>
       </c>
       <c r="E11">
-        <v>2047.386004418435</v>
+        <v>2024.520124465538</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1172.687020782348</v>
+        <v>1064.299370334873</v>
       </c>
       <c r="C12">
-        <v>1616.42836104628</v>
+        <v>1513.674914180851</v>
       </c>
       <c r="D12">
-        <v>1925.405581190644</v>
+        <v>1856.800577042918</v>
       </c>
       <c r="E12">
-        <v>2028.861029587857</v>
+        <v>1984.031298091866</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1219.485333534142</v>
+        <v>1134.02382014775</v>
       </c>
       <c r="C13">
-        <v>1641.824615553334</v>
+        <v>1566.093583151848</v>
       </c>
       <c r="D13">
-        <v>1935.285702291976</v>
+        <v>1884.64303962661</v>
       </c>
       <c r="E13">
-        <v>2034.465361463813</v>
+        <v>2000.244393639614</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1259.515021509692</v>
+        <v>1260</v>
       </c>
       <c r="C2">
-        <v>1635.979465759045</v>
+        <v>1636</v>
       </c>
       <c r="D2">
-        <v>1915.282181076994</v>
+        <v>1915</v>
       </c>
       <c r="E2">
-        <v>2019.65137698106</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1116.668032735869</v>
+        <v>1117</v>
       </c>
       <c r="C3">
-        <v>1531.703068245188</v>
+        <v>1532</v>
       </c>
       <c r="D3">
-        <v>1839.196797963223</v>
+        <v>1839</v>
       </c>
       <c r="E3">
-        <v>2005.850707726499</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1091.483546524667</v>
+        <v>1091</v>
       </c>
       <c r="C4">
-        <v>1517.710587603399</v>
+        <v>1518</v>
       </c>
       <c r="D4">
-        <v>1832.251604520887</v>
+        <v>1832</v>
       </c>
       <c r="E4">
-        <v>1999.697133928843</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1087.172696662512</v>
+        <v>1087</v>
       </c>
       <c r="C5">
-        <v>1514.44998739471</v>
+        <v>1514</v>
       </c>
       <c r="D5">
-        <v>1832.035306284129</v>
+        <v>1832</v>
       </c>
       <c r="E5">
-        <v>2001.652044131167</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1074.256632366303</v>
+        <v>1074</v>
       </c>
       <c r="C6">
-        <v>1514.921941800854</v>
+        <v>1515</v>
       </c>
       <c r="D6">
-        <v>1839.106452291354</v>
+        <v>1839</v>
       </c>
       <c r="E6">
-        <v>2010.435423619375</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1089.558014511482</v>
+        <v>1090</v>
       </c>
       <c r="C7">
-        <v>1517.397064725418</v>
+        <v>1517</v>
       </c>
       <c r="D7">
-        <v>1833.993524116494</v>
+        <v>1834</v>
       </c>
       <c r="E7">
-        <v>2002.705702188781</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1066.649783384992</v>
+        <v>1067</v>
       </c>
       <c r="C8">
-        <v>1508.600389446138</v>
+        <v>1509</v>
       </c>
       <c r="D8">
-        <v>1833.361883931984</v>
+        <v>1833</v>
       </c>
       <c r="E8">
-        <v>2004.813689725464</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1076.130534611789</v>
+        <v>1076</v>
       </c>
       <c r="C9">
-        <v>1506.043863405003</v>
+        <v>1506</v>
       </c>
       <c r="D9">
-        <v>1825.887354415971</v>
+        <v>1826</v>
       </c>
       <c r="E9">
-        <v>1995.729288715466</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1150.60471713456</v>
+        <v>1151</v>
       </c>
       <c r="C10">
-        <v>1581.121243525304</v>
+        <v>1581</v>
       </c>
       <c r="D10">
-        <v>1894.916213845896</v>
+        <v>1895</v>
       </c>
       <c r="E10">
-        <v>2007.701125141178</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1229.289304787239</v>
+        <v>1229</v>
       </c>
       <c r="C11">
-        <v>1631.072621653311</v>
+        <v>1631</v>
       </c>
       <c r="D11">
-        <v>1921.3379978942</v>
+        <v>1921</v>
       </c>
       <c r="E11">
-        <v>2024.520124465538</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1064.299370334873</v>
+        <v>1064</v>
       </c>
       <c r="C12">
-        <v>1513.674914180851</v>
+        <v>1514</v>
       </c>
       <c r="D12">
-        <v>1856.800577042918</v>
+        <v>1857</v>
       </c>
       <c r="E12">
-        <v>1984.031298091866</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1134.02382014775</v>
+        <v>1134</v>
       </c>
       <c r="C13">
-        <v>1566.093583151848</v>
+        <v>1566</v>
       </c>
       <c r="D13">
-        <v>1884.64303962661</v>
+        <v>1885</v>
       </c>
       <c r="E13">
-        <v>2000.244393639614</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_Auto.xlsx
@@ -394,7 +394,7 @@
         <v>1635.979465759045</v>
       </c>
       <c r="D2">
-        <v>1915.282181076994</v>
+        <v>1915.282181076995</v>
       </c>
       <c r="E2">
         <v>2019.65137698106</v>
@@ -482,7 +482,7 @@
         <v>1833.993524116494</v>
       </c>
       <c r="E7">
-        <v>2002.705702188781</v>
+        <v>2002.70570218878</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -533,7 +533,7 @@
         <v>1894.916213845896</v>
       </c>
       <c r="E10">
-        <v>2007.701125141178</v>
+        <v>2007.701125141177</v>
       </c>
     </row>
     <row r="11" spans="1:5">
